--- a/biology/Botanique/Adromischus_cristatus/Adromischus_cristatus.xlsx
+++ b/biology/Botanique/Adromischus_cristatus/Adromischus_cristatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adromischus cristatus est une espèce du genre Adromischus appartenant à la famille des Crassulaceae.
 Elle est originaire d'Afrique du Sud, au sud et à l'est de la province du Cap.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adromischus cristatus est une plante de petite taille (10 cm) presque acaule au port compact. Les feuilles sont fortement charnues et étroites à la base. Elles présentent une particularité qui permet de les identifier : des extrémités ondulées.
 Elle présente parfois de courtes racines aériennes rouges qui facilitent l'enracinement.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de culture facile. Supporte la sécheresse qui a pour conséquence de faire maigrir les feuilles qui regonfleront avec des arrosages.
 Se reproduit facilement par bouturage des feuilles en période végétative.
